--- a/Writing/Oct_2023/Supp. Materials/Supplementary Tables.xlsx
+++ b/Writing/Oct_2023/Supp. Materials/Supplementary Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gordoncuster/Desktop/Git_projects/Herbicide_Microbes_PT1/Writing/Supplementary_Materials/Final Supp Materials April 22/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gordoncuster/Desktop/Git_projects/Herbicide_Microbes_PT1/Writing/Oct_2023/Supp. Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FD6770-BDDA-4647-B6F8-29B023DFEA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFA1AD6-E71E-5440-848C-D32705FAF847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3100" windowWidth="20760" windowHeight="17500" activeTab="3" xr2:uid="{3B2777A9-9730-A043-8EAE-74AD230F66E7}"/>
+    <workbookView xWindow="-38400" yWindow="-3100" windowWidth="38400" windowHeight="17500" firstSheet="2" activeTab="9" xr2:uid="{3B2777A9-9730-A043-8EAE-74AD230F66E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Table legends" sheetId="10" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6073" uniqueCount="1237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6085" uniqueCount="1249">
   <si>
     <t>F.value</t>
   </si>
@@ -3756,6 +3756,42 @@
   </si>
   <si>
     <t>GravimetricWaterContent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This workbook contains model outputs associated with the manusciript "Direct and indirect effects of herbicide application on an agricultural soil microbiome" written by Gordon F. Custer, Joshua G. Harrison, Andrew R. Kniss, and Linda TA van Diepen. </t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>G1</t>
   </si>
 </sst>
 </file>
@@ -3901,7 +3937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3941,31 +3977,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4296,14 +4315,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE22A37-7A75-094F-9154-6DB3CFD74EAA}">
-  <dimension ref="A2:A10"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="88.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>1237</v>
+      </c>
+    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
     </row>
@@ -4317,19 +4344,59 @@
       <c r="A5" s="35"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
+      <c r="A6" s="35" t="s">
+        <v>1238</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+      <c r="A7" s="35" t="s">
+        <v>1239</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+      <c r="A8" s="35" t="s">
+        <v>1241</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="35" t="s">
+        <v>1240</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+      <c r="A10" s="35" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="35" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="35" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
+        <v>1248</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4340,8 +4407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A0B1E6-8FA4-0F40-A498-CF98153C1A69}">
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="S116" sqref="S116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H63" sqref="F63:H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20148,7 +20215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D0D792-EFF8-0748-B9F1-634534BF04A3}">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -22677,7 +22744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E4172A-E776-CC45-8F5C-10CAC3218163}">
   <dimension ref="A1:G361"/>
   <sheetViews>
-    <sheetView topLeftCell="A203" workbookViewId="0">
+    <sheetView topLeftCell="A201" workbookViewId="0">
       <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
@@ -30997,7 +31064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE3E733-3418-FF48-8A7E-1CC97E925F76}">
   <dimension ref="A1:G183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A143" workbookViewId="0">
       <selection activeCell="B107" sqref="B107:B109"/>
     </sheetView>
   </sheetViews>
@@ -39373,8 +39440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9406C3-37BD-DD47-8906-0A25D1A2E5B2}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -41493,13 +41560,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A4A262-DEBC-D141-856C-61885143B74D}">
   <dimension ref="A1:U302"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A163" zoomScale="75" workbookViewId="0">
       <selection activeCell="S354" sqref="S354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="76.6640625" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="11" customWidth="1"/>
     <col min="3" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28.6640625" customWidth="1"/>
@@ -52247,7 +52314,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E28 E32:E58 E62:E88 E92 E94:E119 E123:E149 E153:E1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52259,7 +52326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9846FEA-2DB6-4F40-9D7B-CDE7DBCC03FE}">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScale="93" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="93" workbookViewId="0">
       <selection activeCell="T183" sqref="T183"/>
     </sheetView>
   </sheetViews>
@@ -55753,7 +55820,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E28 E32:E58 E62:E88 E92:E118 E122:E148 E152:E1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
